--- a/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
+++ b/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vba\excel\AddIns\UserDefFuncs.bas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E695D467-46AE-448D-9A66-86F1EFD63819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE986C8-7380-4E3B-A9C8-FF9996E2761E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26985" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロショートカットキー" sheetId="53" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Macros.bas</t>
     <phoneticPr fontId="3"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ConstructMacroShrtctKeys▲</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Macros.bas</t>
   </si>
   <si>
@@ -228,21 +224,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>DisableMacroShortcutKeys</t>
-  </si>
-  <si>
-    <t>EnableMacroShortcutKeys</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ConstructMacroShortcutKeys</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dMacroShortcutKeysから""でonkey&amp;辞書クリア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>dMacroShortcutKeys追加</t>
     <rPh sb="18" eb="20">
       <t>ツイカ</t>
@@ -250,13 +231,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>dMacroShortcutKeysからonkey&amp;辞書クリア</t>
-    <rPh sb="26" eb="28">
-      <t>ジショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>■関数コールツリー</t>
     <rPh sb="1" eb="3">
       <t>カンスウ</t>
@@ -360,9 +334,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>マクロショートカットキー全て有効化</t>
-  </si>
-  <si>
     <t>アクティブセルコメント設定読み出し用</t>
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
@@ -388,6 +359,14 @@
   </si>
   <si>
     <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SwitchMacroShortcutKeysActivation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SwitchMacroShortcutKeysActivation</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -977,23 +956,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBA40A4-F9EE-4AAD-8DC1-239C9AD26615}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:AA26"/>
+  <dimension ref="B2:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="2.625" style="4"/>
-    <col min="3" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1"/>
+    <col min="2" max="2" width="2.6640625" style="4"/>
+    <col min="3" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="10.95" customHeight="1">
+    <row r="2" spans="2:27" ht="10.9" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" ht="10.8" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="10.9" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:27" s="2" customFormat="1" ht="10.8" customHeight="1">
+    <row r="4" spans="2:27" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1010,19 +991,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="3" customFormat="1" ht="10.8" customHeight="1">
+    <row r="5" spans="2:27" s="3" customFormat="1" ht="10.9" customHeight="1">
       <c r="B5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" s="18" customFormat="1" ht="10.8" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" s="18" customFormat="1" ht="10.9" customHeight="1">
       <c r="B6" s="17"/>
       <c r="F6" s="18" t="s">
         <v>8</v>
@@ -1031,152 +1012,193 @@
         <v>1</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" s="3" customFormat="1" ht="10.8" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="10.9" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" s="2" customFormat="1" ht="10.9" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" s="3" customFormat="1" ht="10.9" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" s="18" customFormat="1" ht="10.9" customHeight="1">
+      <c r="B10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="10.9" customHeight="1">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="s">
+    </row>
+    <row r="13" spans="2:27" ht="10.9" customHeight="1">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="10.9" customHeight="1">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14"/>
+      <c r="Q14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="2:27" ht="10.9" customHeight="1">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" ht="10.8" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" s="2" customFormat="1" ht="10.8" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" ht="10.8" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" s="18" customFormat="1" ht="10.8" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="F11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" ht="10.8" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="10.8" customHeight="1"/>
-    <row r="14" spans="2:27" ht="10.95" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="14"/>
+      <c r="Q15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" ht="10.95" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" ht="10.95" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11" t="s">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="14"/>
+    </row>
+    <row r="16" spans="2:27" ht="10.9" customHeight="1">
+      <c r="C16" s="4"/>
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="11" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10"/>
+      <c r="Q16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="14"/>
-      <c r="Q16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" spans="2:26" ht="10.95" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11" t="s">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="11" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="2:26" ht="10.9" customHeight="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="14"/>
-      <c r="Q17" s="11" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="2:26" ht="10.95" customHeight="1">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="2:26" ht="10.9" customHeight="1">
       <c r="C18" s="4"/>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -1186,118 +1208,52 @@
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="10"/>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="10"/>
       <c r="V18" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="2:26" ht="10.95" customHeight="1">
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="2:26" ht="10.95" customHeight="1">
-      <c r="C20" s="4"/>
-      <c r="D20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="10"/>
-    </row>
-    <row r="21" spans="2:26" ht="10.95" customHeight="1">
+    <row r="19" spans="2:26" ht="10.9" customHeight="1">
+      <c r="B19" s="5"/>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="10.9" customHeight="1">
+      <c r="B20" s="6"/>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="10.9" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="D21" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" ht="10.95" customHeight="1">
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" ht="10.9" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="10.95" customHeight="1">
+    </row>
+    <row r="23" spans="2:26" ht="10.9" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" ht="10.95" customHeight="1">
+    </row>
+    <row r="24" spans="2:26" ht="10.9" customHeight="1">
       <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:26" ht="10.95" customHeight="1">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:26" ht="10.95" customHeight="1">
-      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1311,38 +1267,40 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="2.625" style="4"/>
-    <col min="3" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1"/>
+    <col min="2" max="2" width="2.6640625" style="4"/>
+    <col min="3" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="10.95" customHeight="1">
+    <row r="2" spans="2:32" ht="10.9" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:32" ht="10.95" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="10.9" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
+    <row r="4" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="10.95" customHeight="1">
+    <row r="5" spans="2:32" ht="10.9" customHeight="1">
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="10.95" customHeight="1">
+    <row r="6" spans="2:32" ht="10.9" customHeight="1">
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1358,135 +1316,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="10.95" customHeight="1">
+    <row r="7" spans="2:32" ht="10.9" customHeight="1">
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="10.95" customHeight="1">
+    <row r="8" spans="2:32" ht="10.9" customHeight="1">
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" ht="10.95" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="10.9" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" s="3" customFormat="1" ht="10.95" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" s="3" customFormat="1" ht="10.9" customHeight="1">
       <c r="B12" s="6"/>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" ht="10.95" customHeight="1">
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" s="3" customFormat="1" ht="10.9" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" s="3" customFormat="1" ht="10.95" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" s="3" customFormat="1" ht="10.9" customHeight="1">
       <c r="B16" s="6"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" s="3" customFormat="1" ht="10.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" s="3" customFormat="1" ht="10.9" customHeight="1">
       <c r="B18" s="6"/>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
-      <c r="B19" s="5"/>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32" s="3" customFormat="1" ht="10.95" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" s="2" customFormat="1" ht="10.95" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" ht="10.9" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" s="2" customFormat="1" ht="10.9" customHeight="1">
       <c r="B21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" s="3" customFormat="1" ht="10.95" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" s="3" customFormat="1" ht="10.9" customHeight="1">
       <c r="B22" s="6"/>
       <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
+++ b/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vba\excel\AddIns\UserDefFuncs.bas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE986C8-7380-4E3B-A9C8-FF9996E2761E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF85332-3803-4CAB-9EFA-7643D1C7FBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26985" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26865" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロショートカットキー" sheetId="53" r:id="rId1"/>
     <sheet name="アクティブセルコメント表示" sheetId="54" r:id="rId2"/>
+    <sheet name="SettingFiles" sheetId="55" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
@@ -632,6 +633,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1267,8 +1383,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.9" customHeight="1"/>
@@ -1452,4 +1568,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01F14E2-F918-4373-A4D7-22BEA3E9A6A8}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.83203125" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
+++ b/vba/excel/AddIns/UserDefFuncs.bas/設計資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vba\excel\AddIns\UserDefFuncs.bas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF85332-3803-4CAB-9EFA-7643D1C7FBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC974AB-24D8-4363-AC39-F4015F45332F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26865" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32295" yWindow="-28500" windowWidth="32295" windowHeight="44850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロショートカットキー" sheetId="53" r:id="rId1"/>
@@ -660,7 +660,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -715,7 +715,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1074,9 +1074,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.9" customHeight="1"/>
   <cols>
